--- a/spider/xlsx/oDA4r5MmMFopSzHs5hVaDELaeJPE.xlsx
+++ b/spider/xlsx/oDA4r5MmMFopSzHs5hVaDELaeJPE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>发票出纳总账目单</t>
   </si>
@@ -52,82 +52,121 @@
     <t>其他信息</t>
   </si>
   <si>
-    <t>021001800111</t>
-  </si>
-  <si>
-    <t>32486104</t>
-  </si>
-  <si>
-    <t>2018年11月16日</t>
-  </si>
-  <si>
-    <t>69.25</t>
-  </si>
-  <si>
     <t>021001900111</t>
   </si>
   <si>
-    <t>55666753</t>
-  </si>
-  <si>
-    <t>2019年02月12日</t>
-  </si>
-  <si>
-    <t>58.18</t>
-  </si>
-  <si>
-    <t>2019-02-23 09:28:03</t>
+    <t>04906199</t>
+  </si>
+  <si>
+    <t>2019年02月05日</t>
+  </si>
+  <si>
+    <t>946.45</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:22:29</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>沈阳京东世纪贸易有限公司</t>
-  </si>
-  <si>
-    <t>美容护肤品</t>
+    <t>沈阳京东益成贸易有限公司</t>
+  </si>
+  <si>
+    <t>移动通信设备</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>*美容护肤品*旁氏(PONDS)洗面奶 亮采净澈系列 米粹润泽洁面乳120g(新老包装随机发货)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>口腔清洁护理品</t>
-  </si>
-  <si>
-    <t>*口腔清洁护理品*舒客 维C营养牙膏120g(鲜橙薄荷) 口气清新 去渍 护龈 防蛀固齿</t>
-  </si>
-  <si>
-    <t>*口腔清洁护理品*黑人（DARLIE）超白美白牙膏 亮白防蛀清新口气（竹炭深洁120g）（新老包装随机</t>
-  </si>
-  <si>
-    <t>*美容护肤品*美加净（MAXAM）银耳珍珠滋养蜜100ml（补水保湿乳液润肤露）</t>
-  </si>
-  <si>
-    <t>*美容护肤品*美加净银耳珍珠滋养霜120g（经典国货 补水保湿面霜）</t>
-  </si>
-  <si>
-    <t>洗涤剂</t>
-  </si>
-  <si>
-    <t>*洗涤剂*隆力奇蛇胆硫磺皂120g抑菌驱痘 驱除螨虫 洁面皂（一人之下 周边）</t>
-  </si>
-  <si>
-    <t>011001800311</t>
-  </si>
-  <si>
-    <t>41129658</t>
-  </si>
-  <si>
-    <t>2018年09月15日</t>
-  </si>
-  <si>
-    <t>150.00</t>
+    <t>*移动通信设备*联想Z5 6GB+64GB 极光色 6.2英寸全面屏双摄 全网通4G手机 双卡双待</t>
+  </si>
+  <si>
+    <t>08662363</t>
+  </si>
+  <si>
+    <t>2019年02月02日</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:22:30</t>
+  </si>
+  <si>
+    <t>江苏圆周电子商务有限公司沈阳分公司</t>
+  </si>
+  <si>
+    <t>印刷品</t>
+  </si>
+  <si>
+    <t>*印刷品*Effective Java中文版（原书第3版）</t>
+  </si>
+  <si>
+    <t>*印刷品*OReilly：Head First Java（中文版 第2版 涵盖Java5.0）</t>
+  </si>
+  <si>
+    <t>08508993</t>
+  </si>
+  <si>
+    <t>2019年01月31日</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:22:32</t>
+  </si>
+  <si>
+    <t>*印刷品*C++ Primer Plus（第6版 中文版）</t>
+  </si>
+  <si>
+    <t>011001800411</t>
+  </si>
+  <si>
+    <t>94391277</t>
+  </si>
+  <si>
+    <t>2019年01月05日</t>
+  </si>
+  <si>
+    <t>395.62</t>
+  </si>
+  <si>
+    <t>北京京东世纪信息技术有限公司</t>
+  </si>
+  <si>
+    <t>计算机外部设备</t>
+  </si>
+  <si>
+    <t>*计算机外部设备*英特尔（Intel）760P系列 256G NVMe M.2 2280接口 固态硬盘</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>031001800311</t>
+  </si>
+  <si>
+    <t>52285645</t>
+  </si>
+  <si>
+    <t>2019年03月08日</t>
+  </si>
+  <si>
+    <t>98.60</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:33:35</t>
+  </si>
+  <si>
+    <t>北方工业大学</t>
+  </si>
+  <si>
+    <t>上海华心图书有限公司</t>
+  </si>
+  <si>
+    <t>*印刷品*图书</t>
   </si>
   <si>
     <t>总计金额：</t>
@@ -495,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,59 +629,75 @@
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -657,9 +712,7 @@
       <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
@@ -677,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -695,49 +748,79 @@
       <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -750,140 +833,98 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2">
-        <v>277.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1662.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="26">
     <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="D6:D17"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="F6:F17"/>
-    <mergeCell ref="G6:G17"/>
-    <mergeCell ref="H6:H17"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
